--- a/content/Book Four 1-10.xlsx
+++ b/content/Book Four 1-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vani-www\asha-bhaagvatam\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5FEF5-E48A-4E09-883B-9BBD6E91F42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D413AAB-999C-446A-8128-F03F79D8C24E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10935" uniqueCount="6676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10935" uniqueCount="6678">
   <si>
     <t>विदुर उवाच -</t>
   </si>
@@ -20058,6 +20058,12 @@
   </si>
   <si>
     <t>Hearing that the Raakshasas had applied demonish tricks which are very difficult to counter, on Dhruva, many sages came there assembled to pray for his welfare.</t>
+  </si>
+  <si>
+    <t>7-S</t>
+  </si>
+  <si>
+    <t>8-E</t>
   </si>
 </sst>
 </file>
@@ -20522,7 +20528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="A499" sqref="A499:A500"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28437,9 +28445,9 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="1" t="s">
-        <v>6670</v>
+    <row r="499" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A499" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B499" s="1">
         <v>67</v>
@@ -28452,8 +28460,8 @@
       </c>
     </row>
     <row r="500" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A500" s="1" t="s">
-        <v>6671</v>
+      <c r="A500" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B500" s="1">
         <v>67</v>
@@ -28478,7 +28486,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C239" sqref="C239"/>
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31613,9 +31621,9 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>6670</v>
+    <row r="240" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A240" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B240" s="1">
         <v>31</v>
@@ -31625,8 +31633,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>6671</v>
+      <c r="A241" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B241" s="1">
         <v>31</v>
@@ -31648,8 +31656,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35788,9 +35796,9 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="8" t="s">
-        <v>6670</v>
+    <row r="263" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A263" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B263" s="8">
         <v>36</v>
@@ -35803,8 +35811,8 @@
       </c>
     </row>
     <row r="264" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="8" t="s">
-        <v>6671</v>
+      <c r="A264" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B264" s="8">
         <v>36</v>
@@ -35829,8 +35837,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A230" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232:A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39581,9 +39589,9 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
-        <v>6670</v>
+    <row r="232" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B232" s="1">
         <v>26</v>
@@ -39596,8 +39604,8 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>6671</v>
+      <c r="A233" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B233" s="1">
         <v>26</v>
@@ -39623,8 +39631,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E343"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A319" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342:A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45182,9 +45190,9 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
-        <v>6670</v>
+    <row r="342" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A342" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B342" s="1">
         <v>35</v>
@@ -45197,8 +45205,8 @@
       </c>
     </row>
     <row r="343" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
-        <v>6671</v>
+      <c r="A343" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B343" s="1">
         <v>35</v>
@@ -45224,8 +45232,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A224" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="102.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49135,9 +49143,9 @@
       </c>
       <c r="E240" s="14"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>6670</v>
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A241" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B241" s="1">
         <v>27</v>
@@ -49150,8 +49158,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
-        <v>6671</v>
+      <c r="A242" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B242" s="1">
         <v>27</v>
@@ -49177,7 +49185,7 @@
   <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView topLeftCell="A428" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D443" sqref="D443"/>
+      <selection activeCell="A436" sqref="A436:A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56144,8 +56152,8 @@
       </c>
     </row>
     <row r="436" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A436" s="1" t="s">
-        <v>6670</v>
+      <c r="A436" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B436" s="1">
         <v>54</v>
@@ -56158,8 +56166,8 @@
       </c>
     </row>
     <row r="437" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A437" s="1" t="s">
-        <v>6671</v>
+      <c r="A437" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B437" s="1">
         <v>54</v>
@@ -56184,7 +56192,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E587"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A584" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586:A587"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -65626,8 +65636,8 @@
       </c>
     </row>
     <row r="586" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A586" s="1" t="s">
-        <v>6670</v>
+      <c r="A586" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B586" s="1">
         <v>62</v>
@@ -65640,8 +65650,8 @@
       </c>
     </row>
     <row r="587" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A587" s="1" t="s">
-        <v>6671</v>
+      <c r="A587" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B587" s="1">
         <v>62</v>
@@ -65667,7 +65677,7 @@
   <dimension ref="A1:E693"/>
   <sheetViews>
     <sheetView topLeftCell="A674" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A693" sqref="A693:XFD693"/>
+      <selection activeCell="A692" sqref="A692:A693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -76731,8 +76741,8 @@
       </c>
     </row>
     <row r="692" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="1" t="s">
-        <v>6670</v>
+      <c r="A692" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B692" s="1">
         <v>83</v>
@@ -76745,8 +76755,8 @@
       </c>
     </row>
     <row r="693" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A693" s="1" t="s">
-        <v>6671</v>
+      <c r="A693" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B693" s="1">
         <v>83</v>
@@ -76772,7 +76782,7 @@
   <dimension ref="A1:F596"/>
   <sheetViews>
     <sheetView topLeftCell="A576" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D596" sqref="D596"/>
+      <selection activeCell="A595" sqref="A595:A596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -86303,8 +86313,8 @@
       </c>
     </row>
     <row r="595" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A595" s="1" t="s">
-        <v>6670</v>
+      <c r="A595" s="7" t="s">
+        <v>6676</v>
       </c>
       <c r="B595" s="1">
         <v>68</v>
@@ -86317,8 +86327,8 @@
       </c>
     </row>
     <row r="596" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="1" t="s">
-        <v>6671</v>
+      <c r="A596" s="7" t="s">
+        <v>6677</v>
       </c>
       <c r="B596" s="1">
         <v>68</v>

--- a/content/Book Four 1-10.xlsx
+++ b/content/Book Four 1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vani-www\asha-bhaagvatam\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D413AAB-999C-446A-8128-F03F79D8C24E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7107A008-6859-4289-947F-C79DACEF2322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4-1" sheetId="11" r:id="rId1"/>
@@ -28485,7 +28485,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A221" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
@@ -56192,8 +56192,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E587"/>
   <sheetViews>
-    <sheetView topLeftCell="A584" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A586" sqref="A586:A587"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61088,7 +61088,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>6669</v>
+        <v>6672</v>
       </c>
       <c r="B303" s="1">
         <v>33</v>

--- a/content/Book Four 1-10.xlsx
+++ b/content/Book Four 1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vani-www\asha-bhaagvatam\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7107A008-6859-4289-947F-C79DACEF2322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA62619-D63D-443C-AD1F-45A569A48537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4-1" sheetId="11" r:id="rId1"/>
@@ -56192,8 +56192,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304"/>
+    <sheetView topLeftCell="A301" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -65676,8 +65676,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E693"/>
   <sheetViews>
-    <sheetView topLeftCell="A674" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A692" sqref="A692:A693"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E447" sqref="E447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72906,7 +72906,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>6669</v>
+        <v>6670</v>
       </c>
       <c r="B451" s="1">
         <v>54</v>

--- a/content/Book Four 1-10.xlsx
+++ b/content/Book Four 1-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vani-www\asha-bhaagvatam\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA62619-D63D-443C-AD1F-45A569A48537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31BC91D-B056-4305-8299-EB5766BDA941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="627" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4-1" sheetId="11" r:id="rId1"/>
@@ -28485,9 +28485,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28567,6 +28565,9 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
@@ -28581,6 +28582,9 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>3380</v>
       </c>
@@ -28593,6 +28597,9 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>3379</v>
       </c>
@@ -28605,6 +28612,9 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>3381</v>
       </c>
@@ -28619,6 +28629,9 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>4005</v>
       </c>
@@ -28633,6 +28646,9 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>3382</v>
       </c>
@@ -28646,6 +28662,9 @@
       </c>
       <c r="B11" s="1">
         <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3383</v>
@@ -28661,6 +28680,9 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>3387</v>
       </c>
@@ -28673,6 +28695,9 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>3388</v>
       </c>
@@ -28685,6 +28710,9 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>3389</v>
       </c>
@@ -28697,6 +28725,9 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>3390</v>
       </c>
@@ -28711,6 +28742,9 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>4007</v>
       </c>
@@ -28725,6 +28759,9 @@
       <c r="B17" s="1">
         <v>2</v>
       </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>4009</v>
       </c>
@@ -28738,6 +28775,9 @@
       </c>
       <c r="B18" s="1">
         <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>4010</v>
@@ -28753,6 +28793,9 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>3393</v>
       </c>
@@ -28765,6 +28808,9 @@
       <c r="B20" s="1">
         <v>3</v>
       </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>3394</v>
       </c>
@@ -28777,6 +28823,9 @@
       <c r="B21" s="1">
         <v>3</v>
       </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>3395</v>
       </c>
@@ -28789,6 +28838,9 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>4012</v>
       </c>
@@ -28803,6 +28855,9 @@
       <c r="B23" s="1">
         <v>3</v>
       </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>3396</v>
       </c>
@@ -28817,6 +28872,9 @@
       <c r="B24" s="1">
         <v>3</v>
       </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>3397</v>
       </c>
@@ -28831,6 +28889,9 @@
       <c r="B25" s="1">
         <v>3</v>
       </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>3398</v>
       </c>
@@ -28844,6 +28905,9 @@
       </c>
       <c r="B26" s="1">
         <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3399</v>
@@ -28859,6 +28923,9 @@
       <c r="B27" s="1">
         <v>3</v>
       </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>4013</v>
       </c>
@@ -28871,6 +28938,9 @@
       <c r="B28" s="1">
         <v>4</v>
       </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>3403</v>
       </c>
@@ -28883,6 +28953,9 @@
       <c r="B29" s="1">
         <v>4</v>
       </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>3404</v>
       </c>
@@ -28895,6 +28968,9 @@
       <c r="B30" s="1">
         <v>4</v>
       </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>4014</v>
       </c>
@@ -28909,6 +28985,9 @@
       <c r="B31" s="1">
         <v>4</v>
       </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>4015</v>
       </c>
@@ -28923,6 +29002,9 @@
       <c r="B32" s="1">
         <v>4</v>
       </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>4016</v>
       </c>
@@ -28935,6 +29017,9 @@
         <v>6669</v>
       </c>
       <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -28951,6 +29036,9 @@
       <c r="B34" s="1">
         <v>4</v>
       </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>4022</v>
       </c>
@@ -28963,6 +29051,9 @@
       <c r="B35" s="1">
         <v>5</v>
       </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>3405</v>
       </c>
@@ -28975,6 +29066,9 @@
       <c r="B36" s="1">
         <v>5</v>
       </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>3406</v>
       </c>
@@ -28987,6 +29081,9 @@
       <c r="B37" s="1">
         <v>5</v>
       </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>4023</v>
       </c>
@@ -29001,6 +29098,9 @@
       <c r="B38" s="1">
         <v>5</v>
       </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>4024</v>
       </c>
@@ -29015,6 +29115,9 @@
       <c r="B39" s="1">
         <v>5</v>
       </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>3407</v>
       </c>
@@ -29028,6 +29131,9 @@
       </c>
       <c r="B40" s="1">
         <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3408</v>
@@ -29043,6 +29149,9 @@
       <c r="B41" s="1">
         <v>5</v>
       </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>3410</v>
       </c>
@@ -29055,6 +29164,9 @@
       <c r="B42" s="1">
         <v>6</v>
       </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>3412</v>
       </c>
@@ -29067,6 +29179,9 @@
       <c r="B43" s="1">
         <v>6</v>
       </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>3411</v>
       </c>
@@ -29079,6 +29194,9 @@
       <c r="B44" s="1">
         <v>6</v>
       </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>4025</v>
       </c>
@@ -29093,6 +29211,9 @@
       <c r="B45" s="1">
         <v>6</v>
       </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>4026</v>
       </c>
@@ -29107,6 +29228,9 @@
       <c r="B46" s="1">
         <v>6</v>
       </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
       <c r="D46" s="2" t="s">
         <v>3413</v>
       </c>
@@ -29120,6 +29244,9 @@
       </c>
       <c r="B47" s="1">
         <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>4027</v>
@@ -29135,6 +29262,9 @@
       <c r="B48" s="1">
         <v>6</v>
       </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>3415</v>
       </c>
@@ -29147,6 +29277,9 @@
       <c r="B49" s="1">
         <v>7</v>
       </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
       <c r="D49" s="2" t="s">
         <v>3417</v>
       </c>
@@ -29159,6 +29292,9 @@
       <c r="B50" s="1">
         <v>7</v>
       </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
       <c r="D50" s="2" t="s">
         <v>3416</v>
       </c>
@@ -29171,6 +29307,9 @@
       <c r="B51" s="1">
         <v>7</v>
       </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>3418</v>
       </c>
@@ -29185,6 +29324,9 @@
       <c r="B52" s="1">
         <v>7</v>
       </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>3419</v>
       </c>
@@ -29199,6 +29341,9 @@
       <c r="B53" s="1">
         <v>7</v>
       </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>3420</v>
       </c>
@@ -29213,6 +29358,9 @@
       <c r="B54" s="1">
         <v>7</v>
       </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
       <c r="D54" s="2" t="s">
         <v>3421</v>
       </c>
@@ -29226,6 +29374,9 @@
       </c>
       <c r="B55" s="1">
         <v>7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3422</v>
@@ -29241,6 +29392,9 @@
       <c r="B56" s="1">
         <v>7</v>
       </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
       <c r="D56" s="2" t="s">
         <v>3427</v>
       </c>
@@ -29253,6 +29407,9 @@
       <c r="B57" s="1">
         <v>8</v>
       </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>3428</v>
       </c>
@@ -29265,6 +29422,9 @@
       <c r="B58" s="1">
         <v>8</v>
       </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>3429</v>
       </c>
@@ -29277,6 +29437,9 @@
       <c r="B59" s="1">
         <v>8</v>
       </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>3430</v>
       </c>
@@ -29291,6 +29454,9 @@
       <c r="B60" s="1">
         <v>8</v>
       </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>3436</v>
       </c>
@@ -29305,6 +29471,9 @@
       <c r="B61" s="1">
         <v>8</v>
       </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>3437</v>
       </c>
@@ -29319,6 +29488,9 @@
       <c r="B62" s="1">
         <v>8</v>
       </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>3431</v>
       </c>
@@ -29333,6 +29505,9 @@
       <c r="B63" s="1">
         <v>8</v>
       </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
       <c r="D63" s="2" t="s">
         <v>3432</v>
       </c>
@@ -29346,6 +29521,9 @@
       </c>
       <c r="B64" s="1">
         <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3433</v>
@@ -29361,6 +29539,9 @@
       <c r="B65" s="1">
         <v>8</v>
       </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>3440</v>
       </c>
@@ -29373,6 +29554,9 @@
       <c r="B66" s="1">
         <v>9</v>
       </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>3442</v>
       </c>
@@ -29385,6 +29569,9 @@
       <c r="B67" s="1">
         <v>9</v>
       </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>3441</v>
       </c>
@@ -29397,6 +29584,9 @@
       <c r="B68" s="1">
         <v>9</v>
       </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>6548</v>
       </c>
@@ -29411,6 +29601,9 @@
       <c r="B69" s="1">
         <v>9</v>
       </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
       <c r="D69" s="2" t="s">
         <v>6550</v>
       </c>
@@ -29425,6 +29618,9 @@
       <c r="B70" s="1">
         <v>9</v>
       </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
       <c r="D70" s="2" t="s">
         <v>3443</v>
       </c>
@@ -29438,6 +29634,9 @@
       </c>
       <c r="B71" s="1">
         <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3444</v>
@@ -29453,6 +29652,9 @@
       <c r="B72" s="1">
         <v>9</v>
       </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>6552</v>
       </c>
@@ -29465,6 +29667,9 @@
       <c r="B73" s="1">
         <v>10</v>
       </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>3450</v>
       </c>
@@ -29477,6 +29682,9 @@
       <c r="B74" s="1">
         <v>10</v>
       </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>3447</v>
       </c>
@@ -29489,6 +29697,9 @@
       <c r="B75" s="1">
         <v>10</v>
       </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>3449</v>
       </c>
@@ -29503,6 +29714,9 @@
       <c r="B76" s="1">
         <v>10</v>
       </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>3451</v>
       </c>
@@ -29517,6 +29731,9 @@
       <c r="B77" s="1">
         <v>10</v>
       </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>3452</v>
       </c>
@@ -29531,6 +29748,9 @@
       <c r="B78" s="1">
         <v>10</v>
       </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
       <c r="D78" s="2" t="s">
         <v>3453</v>
       </c>
@@ -29545,6 +29765,9 @@
       <c r="B79" s="1">
         <v>10</v>
       </c>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>3454</v>
       </c>
@@ -29558,6 +29781,9 @@
       </c>
       <c r="B80" s="1">
         <v>10</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3448</v>
@@ -29573,6 +29799,9 @@
       <c r="B81" s="1">
         <v>10</v>
       </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>3459</v>
       </c>
@@ -29585,6 +29814,9 @@
       <c r="B82" s="1">
         <v>11</v>
       </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
       <c r="D82" s="2" t="s">
         <v>3462</v>
       </c>
@@ -29597,6 +29829,9 @@
       <c r="B83" s="1">
         <v>11</v>
       </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
       <c r="D83" s="2" t="s">
         <v>3460</v>
       </c>
@@ -29609,6 +29844,9 @@
       <c r="B84" s="1">
         <v>11</v>
       </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>3461</v>
       </c>
@@ -29623,6 +29861,9 @@
       <c r="B85" s="1">
         <v>11</v>
       </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
       <c r="D85" s="2" t="s">
         <v>3463</v>
       </c>
@@ -29637,6 +29878,9 @@
       <c r="B86" s="1">
         <v>11</v>
       </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
       <c r="D86" s="2" t="s">
         <v>3464</v>
       </c>
@@ -29651,6 +29895,9 @@
       <c r="B87" s="1">
         <v>11</v>
       </c>
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
       <c r="D87" s="2" t="s">
         <v>3465</v>
       </c>
@@ -29664,6 +29911,9 @@
       </c>
       <c r="B88" s="1">
         <v>11</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3466</v>
@@ -29679,6 +29929,9 @@
       <c r="B89" s="1">
         <v>11</v>
       </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
       <c r="D89" s="2" t="s">
         <v>6553</v>
       </c>
@@ -29691,6 +29944,9 @@
       <c r="B90" s="1">
         <v>12</v>
       </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
       <c r="D90" s="2" t="s">
         <v>3471</v>
       </c>
@@ -29703,6 +29959,9 @@
       <c r="B91" s="1">
         <v>12</v>
       </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
       <c r="D91" s="2" t="s">
         <v>3472</v>
       </c>
@@ -29715,6 +29974,9 @@
       <c r="B92" s="1">
         <v>12</v>
       </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
       <c r="D92" s="2" t="s">
         <v>3473</v>
       </c>
@@ -29729,6 +29991,9 @@
       <c r="B93" s="1">
         <v>12</v>
       </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>3474</v>
       </c>
@@ -29743,6 +30008,9 @@
       <c r="B94" s="1">
         <v>12</v>
       </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
       <c r="D94" s="2" t="s">
         <v>6554</v>
       </c>
@@ -29756,6 +30024,9 @@
       </c>
       <c r="B95" s="1">
         <v>12</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3475</v>
@@ -29771,6 +30042,9 @@
       <c r="B96" s="1">
         <v>12</v>
       </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>3479</v>
       </c>
@@ -29783,6 +30057,9 @@
       <c r="B97" s="1">
         <v>13</v>
       </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>3480</v>
       </c>
@@ -29795,6 +30072,9 @@
       <c r="B98" s="1">
         <v>13</v>
       </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
       <c r="D98" s="2" t="s">
         <v>3481</v>
       </c>
@@ -29807,6 +30087,9 @@
       <c r="B99" s="1">
         <v>13</v>
       </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
       <c r="D99" s="2" t="s">
         <v>3483</v>
       </c>
@@ -29821,6 +30104,9 @@
       <c r="B100" s="1">
         <v>13</v>
       </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
       <c r="D100" s="2" t="s">
         <v>3484</v>
       </c>
@@ -29835,6 +30121,9 @@
       <c r="B101" s="1">
         <v>13</v>
       </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
       <c r="D101" s="2" t="s">
         <v>3485</v>
       </c>
@@ -29849,6 +30138,9 @@
       <c r="B102" s="1">
         <v>13</v>
       </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
       <c r="D102" s="2" t="s">
         <v>3486</v>
       </c>
@@ -29862,6 +30154,9 @@
       </c>
       <c r="B103" s="1">
         <v>13</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3482</v>
@@ -29877,6 +30172,9 @@
       <c r="B104" s="1">
         <v>13</v>
       </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
       <c r="D104" s="2" t="s">
         <v>3490</v>
       </c>
@@ -29889,6 +30187,9 @@
       <c r="B105" s="1">
         <v>14</v>
       </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
       <c r="D105" s="2" t="s">
         <v>3492</v>
       </c>
@@ -29901,6 +30202,9 @@
       <c r="B106" s="1">
         <v>14</v>
       </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
       <c r="D106" s="2" t="s">
         <v>3491</v>
       </c>
@@ -29913,6 +30217,9 @@
       <c r="B107" s="1">
         <v>14</v>
       </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
       <c r="D107" s="2" t="s">
         <v>3493</v>
       </c>
@@ -29927,6 +30234,9 @@
       <c r="B108" s="1">
         <v>14</v>
       </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
       <c r="D108" s="2" t="s">
         <v>6556</v>
       </c>
@@ -29941,6 +30251,9 @@
       <c r="B109" s="1">
         <v>14</v>
       </c>
+      <c r="C109" s="1">
+        <v>3</v>
+      </c>
       <c r="D109" s="1" t="s">
         <v>6557</v>
       </c>
@@ -29954,6 +30267,9 @@
       </c>
       <c r="B110" s="1">
         <v>14</v>
+      </c>
+      <c r="C110" s="1">
+        <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>3494</v>
@@ -29969,6 +30285,9 @@
       <c r="B111" s="1">
         <v>14</v>
       </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
       <c r="D111" s="6" t="s">
         <v>6560</v>
       </c>
@@ -29980,6 +30299,9 @@
       <c r="B112" s="1">
         <v>15</v>
       </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
       <c r="D112" s="1" t="s">
         <v>3496</v>
       </c>
@@ -29991,6 +30313,9 @@
       <c r="B113" s="1">
         <v>15</v>
       </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
       <c r="D113" s="1" t="s">
         <v>3497</v>
       </c>
@@ -30002,6 +30327,9 @@
       <c r="B114" s="1">
         <v>15</v>
       </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
       <c r="D114" s="1" t="s">
         <v>3498</v>
       </c>
@@ -30016,6 +30344,9 @@
       <c r="B115" s="1">
         <v>15</v>
       </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
       <c r="D115" s="1" t="s">
         <v>6561</v>
       </c>
@@ -30030,6 +30361,9 @@
       <c r="B116" s="1">
         <v>15</v>
       </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
       <c r="D116" s="1" t="s">
         <v>3499</v>
       </c>
@@ -30043,6 +30377,9 @@
       </c>
       <c r="B117" s="1">
         <v>15</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>3500</v>
@@ -30058,6 +30395,9 @@
       <c r="B118" s="1">
         <v>15</v>
       </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
       <c r="D118" s="6" t="s">
         <v>6563</v>
       </c>
@@ -30069,6 +30409,9 @@
       <c r="B119" s="1">
         <v>16</v>
       </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
       <c r="D119" s="1" t="s">
         <v>3505</v>
       </c>
@@ -30080,6 +30423,9 @@
       <c r="B120" s="1">
         <v>16</v>
       </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>3504</v>
       </c>
@@ -30091,6 +30437,9 @@
       <c r="B121" s="1">
         <v>16</v>
       </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
       <c r="D121" s="1" t="s">
         <v>3506</v>
       </c>
@@ -30105,6 +30454,9 @@
       <c r="B122" s="1">
         <v>16</v>
       </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
       <c r="D122" s="1" t="s">
         <v>3507</v>
       </c>
@@ -30119,6 +30471,9 @@
       <c r="B123" s="1">
         <v>16</v>
       </c>
+      <c r="C123" s="1">
+        <v>3</v>
+      </c>
       <c r="D123" s="1" t="s">
         <v>6564</v>
       </c>
@@ -30132,6 +30487,9 @@
       </c>
       <c r="B124" s="1">
         <v>16</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>3510</v>
@@ -30147,6 +30505,9 @@
       <c r="B125" s="1">
         <v>16</v>
       </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
       <c r="D125" s="6" t="s">
         <v>3512</v>
       </c>
@@ -30158,6 +30519,9 @@
       <c r="B126" s="1">
         <v>17</v>
       </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
       <c r="D126" s="1" t="s">
         <v>3513</v>
       </c>
@@ -30169,6 +30533,9 @@
       <c r="B127" s="1">
         <v>17</v>
       </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
       <c r="D127" s="1" t="s">
         <v>3514</v>
       </c>
@@ -30180,6 +30547,9 @@
       <c r="B128" s="1">
         <v>17</v>
       </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
       <c r="D128" s="1" t="s">
         <v>6566</v>
       </c>
@@ -30194,6 +30564,9 @@
       <c r="B129" s="1">
         <v>17</v>
       </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>6568</v>
       </c>
@@ -30208,6 +30581,9 @@
       <c r="B130" s="1">
         <v>17</v>
       </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>3515</v>
       </c>
@@ -30221,6 +30597,9 @@
       </c>
       <c r="B131" s="1">
         <v>17</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>3516</v>
@@ -30236,6 +30615,9 @@
       <c r="B132" s="1">
         <v>17</v>
       </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
       <c r="D132" s="6" t="s">
         <v>3519</v>
       </c>
@@ -30247,6 +30629,9 @@
       <c r="B133" s="1">
         <v>18</v>
       </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
       <c r="D133" s="1" t="s">
         <v>3520</v>
       </c>
@@ -30258,6 +30643,9 @@
       <c r="B134" s="1">
         <v>18</v>
       </c>
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
       <c r="D134" s="1" t="s">
         <v>3521</v>
       </c>
@@ -30269,6 +30657,9 @@
       <c r="B135" s="1">
         <v>18</v>
       </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
       <c r="D135" s="1" t="s">
         <v>6570</v>
       </c>
@@ -30283,6 +30674,9 @@
       <c r="B136" s="1">
         <v>18</v>
       </c>
+      <c r="C136" s="1">
+        <v>2</v>
+      </c>
       <c r="D136" s="1" t="s">
         <v>6571</v>
       </c>
@@ -30297,6 +30691,9 @@
       <c r="B137" s="1">
         <v>18</v>
       </c>
+      <c r="C137" s="1">
+        <v>3</v>
+      </c>
       <c r="D137" s="1" t="s">
         <v>3522</v>
       </c>
@@ -30310,6 +30707,9 @@
       </c>
       <c r="B138" s="1">
         <v>18</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>3523</v>
@@ -30325,6 +30725,9 @@
       <c r="B139" s="1">
         <v>18</v>
       </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
       <c r="D139" s="6" t="s">
         <v>6574</v>
       </c>
@@ -30336,6 +30739,9 @@
       <c r="B140" s="1">
         <v>19</v>
       </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
       <c r="D140" s="1" t="s">
         <v>3525</v>
       </c>
@@ -30347,6 +30753,9 @@
       <c r="B141" s="1">
         <v>19</v>
       </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
       <c r="D141" s="1" t="s">
         <v>3526</v>
       </c>
@@ -30358,6 +30767,9 @@
       <c r="B142" s="1">
         <v>19</v>
       </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
       <c r="D142" s="1" t="s">
         <v>6575</v>
       </c>
@@ -30372,6 +30784,9 @@
       <c r="B143" s="1">
         <v>19</v>
       </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
       <c r="D143" s="1" t="s">
         <v>6576</v>
       </c>
@@ -30386,6 +30801,9 @@
       <c r="B144" s="1">
         <v>19</v>
       </c>
+      <c r="C144" s="1">
+        <v>3</v>
+      </c>
       <c r="D144" s="1" t="s">
         <v>6577</v>
       </c>
@@ -30399,6 +30817,9 @@
       </c>
       <c r="B145" s="1">
         <v>19</v>
+      </c>
+      <c r="C145" s="1">
+        <v>4</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>6578</v>
@@ -30414,6 +30835,9 @@
       <c r="B146" s="1">
         <v>19</v>
       </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
       <c r="D146" s="6" t="s">
         <v>6583</v>
       </c>
@@ -30425,6 +30849,9 @@
       <c r="B147" s="1">
         <v>20</v>
       </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
       <c r="D147" s="1" t="s">
         <v>3527</v>
       </c>
@@ -30436,6 +30863,9 @@
       <c r="B148" s="1">
         <v>20</v>
       </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
       <c r="D148" s="1" t="s">
         <v>3528</v>
       </c>
@@ -30447,6 +30877,9 @@
       <c r="B149" s="1">
         <v>20</v>
       </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
       <c r="D149" s="1" t="s">
         <v>3529</v>
       </c>
@@ -30461,6 +30894,9 @@
       <c r="B150" s="1">
         <v>20</v>
       </c>
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
       <c r="D150" s="1" t="s">
         <v>6584</v>
       </c>
@@ -30475,6 +30911,9 @@
       <c r="B151" s="1">
         <v>20</v>
       </c>
+      <c r="C151" s="1">
+        <v>3</v>
+      </c>
       <c r="D151" s="1" t="s">
         <v>3530</v>
       </c>
@@ -30489,6 +30928,9 @@
       <c r="B152" s="1">
         <v>20</v>
       </c>
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>3531</v>
       </c>
@@ -30503,6 +30945,9 @@
       <c r="B153" s="1">
         <v>20</v>
       </c>
+      <c r="C153" s="1">
+        <v>5</v>
+      </c>
       <c r="D153" s="1" t="s">
         <v>6586</v>
       </c>
@@ -30516,6 +30961,9 @@
       </c>
       <c r="B154" s="1">
         <v>20</v>
+      </c>
+      <c r="C154" s="1">
+        <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>6588</v>
@@ -30531,6 +30979,9 @@
       <c r="B155" s="1">
         <v>20</v>
       </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
       <c r="D155" s="6" t="s">
         <v>6590</v>
       </c>
@@ -30542,6 +30993,9 @@
       <c r="B156" s="1">
         <v>21</v>
       </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
       <c r="D156" s="1" t="s">
         <v>3535</v>
       </c>
@@ -30553,6 +31007,9 @@
       <c r="B157" s="1">
         <v>21</v>
       </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
       <c r="D157" s="1" t="s">
         <v>3536</v>
       </c>
@@ -30564,6 +31021,9 @@
       <c r="B158" s="1">
         <v>21</v>
       </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
       <c r="D158" s="1" t="s">
         <v>6591</v>
       </c>
@@ -30578,6 +31038,9 @@
       <c r="B159" s="1">
         <v>21</v>
       </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
       <c r="D159" s="1" t="s">
         <v>6592</v>
       </c>
@@ -30592,6 +31055,9 @@
       <c r="B160" s="1">
         <v>21</v>
       </c>
+      <c r="C160" s="1">
+        <v>3</v>
+      </c>
       <c r="D160" s="1" t="s">
         <v>3537</v>
       </c>
@@ -30606,6 +31072,9 @@
       <c r="B161" s="1">
         <v>21</v>
       </c>
+      <c r="C161" s="1">
+        <v>4</v>
+      </c>
       <c r="D161" s="1" t="s">
         <v>3538</v>
       </c>
@@ -30620,6 +31089,9 @@
       <c r="B162" s="1">
         <v>21</v>
       </c>
+      <c r="C162" s="1">
+        <v>5</v>
+      </c>
       <c r="D162" s="1" t="s">
         <v>6595</v>
       </c>
@@ -30634,6 +31106,9 @@
       <c r="B163" s="1">
         <v>21</v>
       </c>
+      <c r="C163" s="1">
+        <v>6</v>
+      </c>
       <c r="D163" s="1" t="s">
         <v>6596</v>
       </c>
@@ -30648,6 +31123,9 @@
       <c r="B164" s="1">
         <v>21</v>
       </c>
+      <c r="C164" s="1">
+        <v>7</v>
+      </c>
       <c r="D164" s="1" t="s">
         <v>6597</v>
       </c>
@@ -30661,6 +31139,9 @@
       </c>
       <c r="B165" s="1">
         <v>21</v>
+      </c>
+      <c r="C165" s="1">
+        <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>6598</v>
@@ -30676,6 +31157,9 @@
       <c r="B166" s="1">
         <v>21</v>
       </c>
+      <c r="C166" s="1">
+        <v>0</v>
+      </c>
       <c r="D166" s="6" t="s">
         <v>3544</v>
       </c>
@@ -30687,6 +31171,9 @@
       <c r="B167" s="1">
         <v>22</v>
       </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
       <c r="D167" s="1" t="s">
         <v>3545</v>
       </c>
@@ -30698,6 +31185,9 @@
       <c r="B168" s="1">
         <v>22</v>
       </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
       <c r="D168" s="1" t="s">
         <v>3546</v>
       </c>
@@ -30709,6 +31199,9 @@
       <c r="B169" s="1">
         <v>22</v>
       </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
       <c r="D169" s="1" t="s">
         <v>3547</v>
       </c>
@@ -30723,6 +31216,9 @@
       <c r="B170" s="1">
         <v>22</v>
       </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
       <c r="D170" s="1" t="s">
         <v>6600</v>
       </c>
@@ -30737,6 +31233,9 @@
       <c r="B171" s="1">
         <v>22</v>
       </c>
+      <c r="C171" s="1">
+        <v>3</v>
+      </c>
       <c r="D171" s="1" t="s">
         <v>3548</v>
       </c>
@@ -30751,6 +31250,9 @@
       <c r="B172" s="1">
         <v>22</v>
       </c>
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
       <c r="D172" s="1" t="s">
         <v>3549</v>
       </c>
@@ -30765,6 +31267,9 @@
       <c r="B173" s="1">
         <v>22</v>
       </c>
+      <c r="C173" s="1">
+        <v>5</v>
+      </c>
       <c r="D173" s="1" t="s">
         <v>3550</v>
       </c>
@@ -30779,6 +31284,9 @@
       <c r="B174" s="1">
         <v>22</v>
       </c>
+      <c r="C174" s="1">
+        <v>6</v>
+      </c>
       <c r="D174" s="1" t="s">
         <v>3551</v>
       </c>
@@ -30792,6 +31300,9 @@
       </c>
       <c r="B175" s="1">
         <v>22</v>
+      </c>
+      <c r="C175" s="1">
+        <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3552</v>
@@ -30807,6 +31318,9 @@
       <c r="B176" s="1">
         <v>22</v>
       </c>
+      <c r="C176" s="1">
+        <v>0</v>
+      </c>
       <c r="D176" s="6" t="s">
         <v>6602</v>
       </c>
@@ -30818,6 +31332,9 @@
       <c r="B177" s="1">
         <v>23</v>
       </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
       <c r="D177" s="1" t="s">
         <v>3559</v>
       </c>
@@ -30829,6 +31346,9 @@
       <c r="B178" s="1">
         <v>23</v>
       </c>
+      <c r="C178" s="1">
+        <v>2</v>
+      </c>
       <c r="D178" s="1" t="s">
         <v>3560</v>
       </c>
@@ -30840,6 +31360,9 @@
       <c r="B179" s="1">
         <v>23</v>
       </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
       <c r="D179" s="1" t="s">
         <v>6603</v>
       </c>
@@ -30854,6 +31377,9 @@
       <c r="B180" s="1">
         <v>23</v>
       </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
       <c r="D180" s="1" t="s">
         <v>6604</v>
       </c>
@@ -30868,6 +31394,9 @@
       <c r="B181" s="1">
         <v>23</v>
       </c>
+      <c r="C181" s="1">
+        <v>3</v>
+      </c>
       <c r="D181" s="1" t="s">
         <v>6605</v>
       </c>
@@ -30881,6 +31410,9 @@
       </c>
       <c r="B182" s="1">
         <v>23</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>6606</v>
@@ -30896,6 +31428,9 @@
       <c r="B183" s="1">
         <v>23</v>
       </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
       <c r="D183" s="6" t="s">
         <v>6611</v>
       </c>
@@ -30907,6 +31442,9 @@
       <c r="B184" s="1">
         <v>24</v>
       </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
       <c r="D184" s="1" t="s">
         <v>3561</v>
       </c>
@@ -30918,6 +31456,9 @@
       <c r="B185" s="1">
         <v>24</v>
       </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
       <c r="D185" s="1" t="s">
         <v>3562</v>
       </c>
@@ -30929,6 +31470,9 @@
       <c r="B186" s="1">
         <v>24</v>
       </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
       <c r="D186" s="1" t="s">
         <v>6612</v>
       </c>
@@ -30943,6 +31487,9 @@
       <c r="B187" s="1">
         <v>24</v>
       </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
       <c r="D187" s="1" t="s">
         <v>3563</v>
       </c>
@@ -30957,6 +31504,9 @@
       <c r="B188" s="1">
         <v>24</v>
       </c>
+      <c r="C188" s="1">
+        <v>3</v>
+      </c>
       <c r="D188" s="1" t="s">
         <v>3564</v>
       </c>
@@ -30971,6 +31521,9 @@
       <c r="B189" s="1">
         <v>24</v>
       </c>
+      <c r="C189" s="1">
+        <v>4</v>
+      </c>
       <c r="D189" s="1" t="s">
         <v>3565</v>
       </c>
@@ -30984,6 +31537,9 @@
       </c>
       <c r="B190" s="1">
         <v>24</v>
+      </c>
+      <c r="C190" s="1">
+        <v>5</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>3566</v>
@@ -30999,6 +31555,9 @@
       <c r="B191" s="1">
         <v>24</v>
       </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
       <c r="D191" s="6" t="s">
         <v>6616</v>
       </c>
@@ -31010,6 +31569,9 @@
       <c r="B192" s="1">
         <v>25</v>
       </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
       <c r="D192" s="1" t="s">
         <v>3569</v>
       </c>
@@ -31021,6 +31583,9 @@
       <c r="B193" s="1">
         <v>25</v>
       </c>
+      <c r="C193" s="1">
+        <v>2</v>
+      </c>
       <c r="D193" s="1" t="s">
         <v>3570</v>
       </c>
@@ -31032,6 +31597,9 @@
       <c r="B194" s="1">
         <v>25</v>
       </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
       <c r="D194" s="1" t="s">
         <v>3571</v>
       </c>
@@ -31046,6 +31614,9 @@
       <c r="B195" s="1">
         <v>25</v>
       </c>
+      <c r="C195" s="1">
+        <v>2</v>
+      </c>
       <c r="D195" s="1" t="s">
         <v>3572</v>
       </c>
@@ -31060,6 +31631,9 @@
       <c r="B196" s="1">
         <v>25</v>
       </c>
+      <c r="C196" s="1">
+        <v>3</v>
+      </c>
       <c r="D196" s="1" t="s">
         <v>3573</v>
       </c>
@@ -31074,6 +31648,9 @@
       <c r="B197" s="1">
         <v>25</v>
       </c>
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
       <c r="D197" s="1" t="s">
         <v>3574</v>
       </c>
@@ -31087,6 +31664,9 @@
       </c>
       <c r="B198" s="1">
         <v>25</v>
+      </c>
+      <c r="C198" s="1">
+        <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>3575</v>
@@ -31102,6 +31682,9 @@
       <c r="B199" s="1">
         <v>25</v>
       </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
       <c r="D199" s="6" t="s">
         <v>3581</v>
       </c>
@@ -31113,6 +31696,9 @@
       <c r="B200" s="1">
         <v>26</v>
       </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
       <c r="D200" s="1" t="s">
         <v>3582</v>
       </c>
@@ -31124,6 +31710,9 @@
       <c r="B201" s="1">
         <v>26</v>
       </c>
+      <c r="C201" s="1">
+        <v>2</v>
+      </c>
       <c r="D201" s="1" t="s">
         <v>3583</v>
       </c>
@@ -31135,6 +31724,9 @@
       <c r="B202" s="1">
         <v>26</v>
       </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
       <c r="D202" s="1" t="s">
         <v>3584</v>
       </c>
@@ -31149,6 +31741,9 @@
       <c r="B203" s="1">
         <v>26</v>
       </c>
+      <c r="C203" s="1">
+        <v>2</v>
+      </c>
       <c r="D203" s="1" t="s">
         <v>3585</v>
       </c>
@@ -31163,6 +31758,9 @@
       <c r="B204" s="1">
         <v>26</v>
       </c>
+      <c r="C204" s="1">
+        <v>3</v>
+      </c>
       <c r="D204" s="1" t="s">
         <v>3586</v>
       </c>
@@ -31177,6 +31775,9 @@
       <c r="B205" s="1">
         <v>26</v>
       </c>
+      <c r="C205" s="1">
+        <v>4</v>
+      </c>
       <c r="D205" s="1" t="s">
         <v>6617</v>
       </c>
@@ -31190,6 +31791,9 @@
       </c>
       <c r="B206" s="1">
         <v>26</v>
+      </c>
+      <c r="C206" s="1">
+        <v>5</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>6619</v>
@@ -31205,6 +31809,9 @@
       <c r="B207" s="1">
         <v>26</v>
       </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
       <c r="D207" s="6" t="s">
         <v>6621</v>
       </c>
@@ -31216,6 +31823,9 @@
       <c r="B208" s="1">
         <v>27</v>
       </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
       <c r="D208" s="1" t="s">
         <v>3590</v>
       </c>
@@ -31227,6 +31837,9 @@
       <c r="B209" s="1">
         <v>27</v>
       </c>
+      <c r="C209" s="1">
+        <v>2</v>
+      </c>
       <c r="D209" s="1" t="s">
         <v>3589</v>
       </c>
@@ -31238,6 +31851,9 @@
       <c r="B210" s="1">
         <v>27</v>
       </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
       <c r="D210" s="1" t="s">
         <v>3591</v>
       </c>
@@ -31252,6 +31868,9 @@
       <c r="B211" s="1">
         <v>27</v>
       </c>
+      <c r="C211" s="1">
+        <v>2</v>
+      </c>
       <c r="D211" s="1" t="s">
         <v>3592</v>
       </c>
@@ -31266,6 +31885,9 @@
       <c r="B212" s="1">
         <v>27</v>
       </c>
+      <c r="C212" s="1">
+        <v>3</v>
+      </c>
       <c r="D212" s="1" t="s">
         <v>3593</v>
       </c>
@@ -31279,6 +31901,9 @@
       </c>
       <c r="B213" s="1">
         <v>27</v>
+      </c>
+      <c r="C213" s="1">
+        <v>4</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>6622</v>
@@ -31294,6 +31919,9 @@
       <c r="B214" s="1">
         <v>27</v>
       </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
       <c r="D214" s="6" t="s">
         <v>6624</v>
       </c>
@@ -31305,6 +31933,9 @@
       <c r="B215" s="1">
         <v>28</v>
       </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
       <c r="D215" s="1" t="s">
         <v>3597</v>
       </c>
@@ -31316,6 +31947,9 @@
       <c r="B216" s="1">
         <v>28</v>
       </c>
+      <c r="C216" s="1">
+        <v>2</v>
+      </c>
       <c r="D216" s="1" t="s">
         <v>3600</v>
       </c>
@@ -31327,6 +31961,9 @@
       <c r="B217" s="1">
         <v>28</v>
       </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
       <c r="D217" s="1" t="s">
         <v>3598</v>
       </c>
@@ -31341,6 +31978,9 @@
       <c r="B218" s="1">
         <v>28</v>
       </c>
+      <c r="C218" s="1">
+        <v>2</v>
+      </c>
       <c r="D218" s="1" t="s">
         <v>6625</v>
       </c>
@@ -31355,6 +31995,9 @@
       <c r="B219" s="1">
         <v>28</v>
       </c>
+      <c r="C219" s="1">
+        <v>3</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>3599</v>
       </c>
@@ -31368,6 +32011,9 @@
       </c>
       <c r="B220" s="1">
         <v>28</v>
+      </c>
+      <c r="C220" s="1">
+        <v>4</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>3601</v>
@@ -31383,6 +32029,9 @@
       <c r="B221" s="1">
         <v>28</v>
       </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
       <c r="D221" s="6" t="s">
         <v>6627</v>
       </c>
@@ -31394,6 +32043,9 @@
       <c r="B222" s="1">
         <v>29</v>
       </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
       <c r="D222" s="1" t="s">
         <v>3605</v>
       </c>
@@ -31405,6 +32057,9 @@
       <c r="B223" s="1">
         <v>29</v>
       </c>
+      <c r="C223" s="1">
+        <v>2</v>
+      </c>
       <c r="D223" s="1" t="s">
         <v>3604</v>
       </c>
@@ -31416,6 +32071,9 @@
       <c r="B224" s="1">
         <v>29</v>
       </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
       <c r="D224" s="1" t="s">
         <v>6628</v>
       </c>
@@ -31430,6 +32088,9 @@
       <c r="B225" s="1">
         <v>29</v>
       </c>
+      <c r="C225" s="1">
+        <v>2</v>
+      </c>
       <c r="D225" s="1" t="s">
         <v>3606</v>
       </c>
@@ -31444,6 +32105,9 @@
       <c r="B226" s="1">
         <v>29</v>
       </c>
+      <c r="C226" s="1">
+        <v>3</v>
+      </c>
       <c r="D226" s="1" t="s">
         <v>6629</v>
       </c>
@@ -31457,6 +32121,9 @@
       </c>
       <c r="B227" s="1">
         <v>29</v>
+      </c>
+      <c r="C227" s="1">
+        <v>4</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>6630</v>
@@ -31472,6 +32139,9 @@
       <c r="B228" s="1">
         <v>29</v>
       </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
       <c r="D228" s="6" t="s">
         <v>6675</v>
       </c>
@@ -31483,6 +32153,9 @@
       <c r="B229" s="1">
         <v>30</v>
       </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
       <c r="D229" s="1" t="s">
         <v>3608</v>
       </c>
@@ -31497,6 +32170,9 @@
       <c r="B230" s="1">
         <v>30</v>
       </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
       <c r="D230" s="1" t="s">
         <v>3610</v>
       </c>
@@ -31508,6 +32184,9 @@
       <c r="B231" s="1">
         <v>30</v>
       </c>
+      <c r="C231" s="1">
+        <v>2</v>
+      </c>
       <c r="D231" s="1" t="s">
         <v>3609</v>
       </c>
@@ -31519,6 +32198,9 @@
       <c r="B232" s="1">
         <v>30</v>
       </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
       <c r="D232" s="1" t="s">
         <v>6633</v>
       </c>
@@ -31533,6 +32215,9 @@
       <c r="B233" s="1">
         <v>30</v>
       </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
       <c r="D233" s="1" t="s">
         <v>6634</v>
       </c>
@@ -31547,6 +32232,9 @@
       <c r="B234" s="1">
         <v>30</v>
       </c>
+      <c r="C234" s="1">
+        <v>3</v>
+      </c>
       <c r="D234" s="1" t="s">
         <v>6636</v>
       </c>
@@ -31561,6 +32249,9 @@
       <c r="B235" s="1">
         <v>30</v>
       </c>
+      <c r="C235" s="1">
+        <v>4</v>
+      </c>
       <c r="D235" s="1" t="s">
         <v>3611</v>
       </c>
@@ -31575,6 +32266,9 @@
       <c r="B236" s="1">
         <v>30</v>
       </c>
+      <c r="C236" s="1">
+        <v>5</v>
+      </c>
       <c r="D236" s="1" t="s">
         <v>3612</v>
       </c>
@@ -31589,6 +32283,9 @@
       <c r="B237" s="1">
         <v>30</v>
       </c>
+      <c r="C237" s="1">
+        <v>6</v>
+      </c>
       <c r="D237" s="1" t="s">
         <v>3613</v>
       </c>
@@ -31602,6 +32299,9 @@
       </c>
       <c r="B238" s="1">
         <v>30</v>
+      </c>
+      <c r="C238" s="1">
+        <v>7</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>3614</v>
@@ -31617,6 +32317,9 @@
       <c r="B239" s="1">
         <v>30</v>
       </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
       <c r="D239" s="6" t="s">
         <v>6638</v>
       </c>
@@ -31628,6 +32331,9 @@
       <c r="B240" s="1">
         <v>31</v>
       </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
       <c r="D240" s="6" t="s">
         <v>6639</v>
       </c>
@@ -31638,6 +32344,9 @@
       </c>
       <c r="B241" s="1">
         <v>31</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>6640</v>
@@ -65676,7 +66385,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A427" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E447" sqref="E447"/>
     </sheetView>
   </sheetViews>
